--- a/doc/lang/lang.xlsx
+++ b/doc/lang/lang.xlsx
@@ -958,7 +958,7 @@
     <tableColumn id="8" name="out_fr"/>
     <tableColumn id="9" name="key_get_logic" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1475,6 +1475,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0"/>
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
@@ -1544,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A3,"') }}")</f>
+        <f t="shared" ref="B3:B9" si="0">CONCATENATE("{{ __('",$C$1,".",A3,"') }}")</f>
         <v xml:space="preserve">{{ __('template.example') }}</v>
       </c>
       <c r="C3" t="s">
@@ -1557,811 +1558,811 @@
         <v>14</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE("'",A3,"'"," =&gt; ","'",C3,"',")</f>
+        <f t="shared" ref="F3:F9" si="1">CONCATENATE("'",A3,"'"," =&gt; ","'",C3,"',")</f>
         <v xml:space="preserve">'example' =&gt; 'example',</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE("'",A3,"'"," =&gt; ","'",D3,"',")</f>
+        <f t="shared" ref="G3:G9" si="2">CONCATENATE("'",A3,"'"," =&gt; ","'",D3,"',")</f>
         <v xml:space="preserve">'example' =&gt; 'Beispiel',</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE("'",A3,"'"," =&gt; ","'",E3,"',")</f>
+        <f t="shared" ref="H3:H9" si="3">CONCATENATE("'",A3,"'"," =&gt; ","'",E3,"',")</f>
         <v xml:space="preserve">'example' =&gt; 'Exemple',</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A3,"')")</f>
+        <f t="shared" ref="I3:I9" si="4">CONCATENATE("__('",$C$1,".",A3,"')")</f>
         <v>__('template.example')</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A4,"') }}")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE("'",A4,"'"," =&gt; ","'",C4,"',")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE("'",A4,"'"," =&gt; ","'",D4,"',")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE("'",A4,"'"," =&gt; ","'",E4,"',")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A4,"')")</f>
+        <f t="shared" si="4"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A5,"') }}")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE("'",A5,"'"," =&gt; ","'",C5,"',")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE("'",A5,"'"," =&gt; ","'",D5,"',")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE("'",A5,"'"," =&gt; ","'",E5,"',")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A5,"')")</f>
+        <f t="shared" si="4"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A6,"') }}")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE("'",A6,"'"," =&gt; ","'",C6,"',")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE("'",A6,"'"," =&gt; ","'",D6,"',")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE("'",A6,"'"," =&gt; ","'",E6,"',")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A6,"')")</f>
+        <f t="shared" si="4"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A7,"') }}")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE("'",A7,"'"," =&gt; ","'",C7,"',")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE("'",A7,"'"," =&gt; ","'",D7,"',")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE("'",A7,"'"," =&gt; ","'",E7,"',")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A7,"')")</f>
+        <f t="shared" si="4"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A8,"') }}")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE("'",A8,"'"," =&gt; ","'",C8,"',")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE("'",A8,"'"," =&gt; ","'",D8,"',")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE("'",A8,"'"," =&gt; ","'",E8,"',")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A8,"')")</f>
+        <f t="shared" si="4"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A9,"') }}")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE("'",A9,"'"," =&gt; ","'",C9,"',")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE("'",A9,"'"," =&gt; ","'",D9,"',")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE("'",A9,"'"," =&gt; ","'",E9,"',")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A9,"')")</f>
+        <f t="shared" si="4"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A10,"') }}")</f>
+        <f t="shared" ref="B10:B39" si="5">CONCATENATE("{{ __('",$C$1,".",A10,"') }}")</f>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE("'",A10,"'"," =&gt; ","'",C10,"',")</f>
+        <f t="shared" ref="F10:F39" si="6">CONCATENATE("'",A10,"'"," =&gt; ","'",C10,"',")</f>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE("'",A10,"'"," =&gt; ","'",D10,"',")</f>
+        <f t="shared" ref="G10:G39" si="7">CONCATENATE("'",A10,"'"," =&gt; ","'",D10,"',")</f>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE("'",A10,"'"," =&gt; ","'",E10,"',")</f>
+        <f t="shared" ref="H10:H39" si="8">CONCATENATE("'",A10,"'"," =&gt; ","'",E10,"',")</f>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A10,"')")</f>
+        <f t="shared" ref="I10:I39" si="9">CONCATENATE("__('",$C$1,".",A10,"')")</f>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A11,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE("'",A11,"'"," =&gt; ","'",C11,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("'",A11,"'"," =&gt; ","'",D11,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("'",A11,"'"," =&gt; ","'",E11,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A11,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A12,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE("'",A12,"'"," =&gt; ","'",C12,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE("'",A12,"'"," =&gt; ","'",D12,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE("'",A12,"'"," =&gt; ","'",E12,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A12,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A13,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE("'",A13,"'"," =&gt; ","'",C13,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G13" t="str">
-        <f>CONCATENATE("'",A13,"'"," =&gt; ","'",D13,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE("'",A13,"'"," =&gt; ","'",E13,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A13,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A14,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE("'",A14,"'"," =&gt; ","'",C14,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G14" t="str">
-        <f>CONCATENATE("'",A14,"'"," =&gt; ","'",D14,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE("'",A14,"'"," =&gt; ","'",E14,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I14" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A14,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A15,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE("'",A15,"'"," =&gt; ","'",C15,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G15" t="str">
-        <f>CONCATENATE("'",A15,"'"," =&gt; ","'",D15,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE("'",A15,"'"," =&gt; ","'",E15,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I15" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A15,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A16,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE("'",A16,"'"," =&gt; ","'",C16,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G16" t="str">
-        <f>CONCATENATE("'",A16,"'"," =&gt; ","'",D16,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE("'",A16,"'"," =&gt; ","'",E16,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I16" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A16,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A17,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE("'",A17,"'"," =&gt; ","'",C17,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G17" t="str">
-        <f>CONCATENATE("'",A17,"'"," =&gt; ","'",D17,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE("'",A17,"'"," =&gt; ","'",E17,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I17" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A17,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A18,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE("'",A18,"'"," =&gt; ","'",C18,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G18" t="str">
-        <f>CONCATENATE("'",A18,"'"," =&gt; ","'",D18,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE("'",A18,"'"," =&gt; ","'",E18,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I18" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A18,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A19,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE("'",A19,"'"," =&gt; ","'",C19,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G19" t="str">
-        <f>CONCATENATE("'",A19,"'"," =&gt; ","'",D19,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE("'",A19,"'"," =&gt; ","'",E19,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I19" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A19,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A20,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE("'",A20,"'"," =&gt; ","'",C20,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G20" t="str">
-        <f>CONCATENATE("'",A20,"'"," =&gt; ","'",D20,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE("'",A20,"'"," =&gt; ","'",E20,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I20" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A20,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A21,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE("'",A21,"'"," =&gt; ","'",C21,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G21" t="str">
-        <f>CONCATENATE("'",A21,"'"," =&gt; ","'",D21,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE("'",A21,"'"," =&gt; ","'",E21,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I21" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A21,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A22,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE("'",A22,"'"," =&gt; ","'",C22,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G22" t="str">
-        <f>CONCATENATE("'",A22,"'"," =&gt; ","'",D22,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE("'",A22,"'"," =&gt; ","'",E22,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I22" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A22,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A23,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F23" t="str">
-        <f>CONCATENATE("'",A23,"'"," =&gt; ","'",C23,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G23" t="str">
-        <f>CONCATENATE("'",A23,"'"," =&gt; ","'",D23,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE("'",A23,"'"," =&gt; ","'",E23,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I23" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A23,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A24,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE("'",A24,"'"," =&gt; ","'",C24,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE("'",A24,"'"," =&gt; ","'",D24,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("'",A24,"'"," =&gt; ","'",E24,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A24,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A25,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE("'",A25,"'"," =&gt; ","'",C25,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G25" t="str">
-        <f>CONCATENATE("'",A25,"'"," =&gt; ","'",D25,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE("'",A25,"'"," =&gt; ","'",E25,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I25" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A25,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A26,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE("'",A26,"'"," =&gt; ","'",C26,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G26" t="str">
-        <f>CONCATENATE("'",A26,"'"," =&gt; ","'",D26,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE("'",A26,"'"," =&gt; ","'",E26,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I26" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A26,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A27,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE("'",A27,"'"," =&gt; ","'",C27,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G27" t="str">
-        <f>CONCATENATE("'",A27,"'"," =&gt; ","'",D27,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE("'",A27,"'"," =&gt; ","'",E27,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I27" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A27,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A28,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE("'",A28,"'"," =&gt; ","'",C28,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G28" t="str">
-        <f>CONCATENATE("'",A28,"'"," =&gt; ","'",D28,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE("'",A28,"'"," =&gt; ","'",E28,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I28" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A28,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A29,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE("'",A29,"'"," =&gt; ","'",C29,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G29" t="str">
-        <f>CONCATENATE("'",A29,"'"," =&gt; ","'",D29,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE("'",A29,"'"," =&gt; ","'",E29,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I29" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A29,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A30,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE("'",A30,"'"," =&gt; ","'",C30,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G30" t="str">
-        <f>CONCATENATE("'",A30,"'"," =&gt; ","'",D30,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE("'",A30,"'"," =&gt; ","'",E30,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I30" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A30,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A31,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE("'",A31,"'"," =&gt; ","'",C31,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G31" t="str">
-        <f>CONCATENATE("'",A31,"'"," =&gt; ","'",D31,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE("'",A31,"'"," =&gt; ","'",E31,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I31" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A31,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A32,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE("'",A32,"'"," =&gt; ","'",C32,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G32" t="str">
-        <f>CONCATENATE("'",A32,"'"," =&gt; ","'",D32,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE("'",A32,"'"," =&gt; ","'",E32,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I32" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A32,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A33,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE("'",A33,"'"," =&gt; ","'",C33,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G33" t="str">
-        <f>CONCATENATE("'",A33,"'"," =&gt; ","'",D33,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE("'",A33,"'"," =&gt; ","'",E33,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I33" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A33,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A34,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE("'",A34,"'"," =&gt; ","'",C34,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G34" t="str">
-        <f>CONCATENATE("'",A34,"'"," =&gt; ","'",D34,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE("'",A34,"'"," =&gt; ","'",E34,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I34" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A34,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A35,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F35" t="str">
-        <f>CONCATENATE("'",A35,"'"," =&gt; ","'",C35,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G35" t="str">
-        <f>CONCATENATE("'",A35,"'"," =&gt; ","'",D35,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE("'",A35,"'"," =&gt; ","'",E35,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I35" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A35,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A36,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F36" t="str">
-        <f>CONCATENATE("'",A36,"'"," =&gt; ","'",C36,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G36" t="str">
-        <f>CONCATENATE("'",A36,"'"," =&gt; ","'",D36,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE("'",A36,"'"," =&gt; ","'",E36,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I36" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A36,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A37,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE("'",A37,"'"," =&gt; ","'",C37,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G37" t="str">
-        <f>CONCATENATE("'",A37,"'"," =&gt; ","'",D37,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE("'",A37,"'"," =&gt; ","'",E37,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A37,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A38,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F38" t="str">
-        <f>CONCATENATE("'",A38,"'"," =&gt; ","'",C38,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G38" t="str">
-        <f>CONCATENATE("'",A38,"'"," =&gt; ","'",D38,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE("'",A38,"'"," =&gt; ","'",E38,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I38" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A38,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="str">
-        <f>CONCATENATE("{{ __('",$C$1,".",A39,"') }}")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">{{ __('template.') }}</v>
       </c>
       <c r="F39" t="str">
-        <f>CONCATENATE("'",A39,"'"," =&gt; ","'",C39,"',")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="G39" t="str">
-        <f>CONCATENATE("'",A39,"'"," =&gt; ","'",D39,"',")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE("'",A39,"'"," =&gt; ","'",E39,"',")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'' =&gt; '',</v>
       </c>
       <c r="I39" t="str">
-        <f>CONCATENATE("__('",$C$1,".",A39,"')")</f>
+        <f t="shared" si="9"/>
         <v>__('template.')</v>
       </c>
     </row>
